--- a/bank statement generator/bank_statements/statement_125.xlsx
+++ b/bank statement generator/bank_statements/statement_125.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 17.09.2024</t>
+          <t>KONTOSTAND AM 31.08.2024</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,88 +759,88 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>19.09.</t>
+          <t>01.09.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>20.09.</t>
+          <t>02.09.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>MCDONALDS Königs Wusterhausen</t>
+          <t>BEITRAG Allianz SE K-41716360</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>41,48-</t>
+          <t>53,04-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>23.09.</t>
+          <t>04.09.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>24.09.</t>
+          <t>05.09.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>ABSCHLAG STROM Stadtwerke Rosenheim 78366344</t>
+          <t>AMAZON.DE MKTPLC EU PJMWVI</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>85,38-</t>
+          <t>18,91-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>25.09.</t>
+          <t>07.09.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>26.09.</t>
+          <t>08.09.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
+          <t>RECHNUNG VODAFONE GMBH 91330493</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>25,09-</t>
+          <t>41,80-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>29.09.</t>
+          <t>10.09.</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>30.09.</t>
+          <t>11.09.</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>KARTENZ./29.09 EDEKA RO</t>
+          <t>MITGLIEDSBEITRAG ZEUS BODYPOWER</t>
         </is>
       </c>
       <c r="E9" s="17" t="inlineStr">
         <is>
-          <t>133,65-</t>
+          <t>25,46-</t>
         </is>
       </c>
     </row>
@@ -861,12 +861,12 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 04.10.2024</t>
+          <t>KONTOSTAND AM 15.09.2024</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>285,60-</t>
+          <t>139,21-</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 14.10.2024</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 25.09.2024</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
